--- a/biology/Zoologie/Cupedidae/Cupedidae.xlsx
+++ b/biology/Zoologie/Cupedidae/Cupedidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cupedidae sont une famille de Coléoptères du sous-ordre des Archostemata. La famille regroupe surtout des taxons fossiles. Les plus anciens retrouvés datent d'il y a 242 millions d'années[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cupedidae sont une famille de Coléoptères du sous-ordre des Archostemata. La famille regroupe surtout des taxons fossiles. Les plus anciens retrouvés datent d'il y a 242 millions d'années.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom valide de ce taxon est Cupedidae, créé en 1836 par le naturaliste français Francis de Laporte de Castelnau, à partir du genre type Cupes[2].
-Cupedidae a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom valide de ce taxon est Cupedidae, créé en 1836 par le naturaliste français Francis de Laporte de Castelnau, à partir du genre type Cupes.
+Cupedidae a pour synonymes :
 Cupesidae
 Cupidae</t>
         </is>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (8 mai 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (8 mai 2022) :
 sous-famille des Cupedinae Laporte de Castelnau, 1836
 tribu des Cupedini Laporte de Castelnau, 1836
 Cupes Fabricius, 1801
@@ -633,7 +649,7 @@
 Tetrocupes Hong, 1983 †
 Tripocoleus Hong, 1982 †
 Zigadenia Handlirsch, 1906 †
-Selon GBIF       (8 mai 2022)[3] :
+Selon GBIF       (8 mai 2022) :
 Adinolepis Neboiss, 1984
 Anaglyphites Ponomarenko, 1964
 Anthocoleus Hong, 1983
